--- a/data/trans_bre/P29_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-23.61553285145897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-16.51768395307616</v>
+        <v>-16.51768395307617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4737953690615666</v>
@@ -649,7 +649,7 @@
         <v>-0.3882703782111973</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.261768209325507</v>
+        <v>-0.2617682093255072</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-33.62529202191961</v>
+        <v>-34.07463753945028</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-29.80859364340558</v>
+        <v>-28.84873087054873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-31.9039650498662</v>
+        <v>-32.05256535995426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-23.48241040925315</v>
+        <v>-23.9873701263145</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5809686430687596</v>
+        <v>-0.5800818637541687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4702828915832711</v>
+        <v>-0.4623261717511233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4970092959894833</v>
+        <v>-0.4906261475381398</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3592001360189583</v>
+        <v>-0.35712607104552</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-16.50031921371916</v>
+        <v>-17.41461177096449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-12.77096352131287</v>
+        <v>-13.01989136377059</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-14.99544906389755</v>
+        <v>-14.8164579221602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-8.737730844823441</v>
+        <v>-9.455338838911873</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3347317762686111</v>
+        <v>-0.3439381345903454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2337101651371253</v>
+        <v>-0.2334310436219001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2680128428672967</v>
+        <v>-0.2649383424947174</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1570688989695675</v>
+        <v>-0.1573978798665208</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-37.97539713346064</v>
+        <v>-37.5999642180848</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-38.50438979545522</v>
+        <v>-38.37218325998089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-39.6069192821398</v>
+        <v>-39.59536456998961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-34.24333843711953</v>
+        <v>-34.15615029599992</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7601427146714234</v>
+        <v>-0.7573817609780578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5991135122778576</v>
+        <v>-0.6019642994893976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.703195998336387</v>
+        <v>-0.7035686155298054</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5511565425562853</v>
+        <v>-0.5483093536918403</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-26.06511185211909</v>
+        <v>-26.63372857861529</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-26.3607653232712</v>
+        <v>-25.88664601093321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-27.83178794725739</v>
+        <v>-28.35903695184076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-21.60878521837032</v>
+        <v>-21.69114373078463</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.6076068507296594</v>
+        <v>-0.6053242804434935</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4503163465727909</v>
+        <v>-0.4461074056866637</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.5519338522699875</v>
+        <v>-0.556502002710121</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3941027021683771</v>
+        <v>-0.3941491454063013</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.4387505451238263</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.497496852731691</v>
+        <v>-0.4974968527316909</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-41.55147400915241</v>
+        <v>-41.8016182166326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-32.78494873284323</v>
+        <v>-33.69955180403449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-35.42206558419318</v>
+        <v>-35.47452041333577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-37.4199970420786</v>
+        <v>-36.98486320700509</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6496162979311197</v>
+        <v>-0.6488569122313922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5079493715905614</v>
+        <v>-0.5121708413059525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5217742735277414</v>
+        <v>-0.5232024376558642</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5726890106490737</v>
+        <v>-0.5704857505563208</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-27.78273087974116</v>
+        <v>-27.12082715603291</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-17.34755295543277</v>
+        <v>-17.76806492818752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.15034217537234</v>
+        <v>-21.25461057692659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-23.75887800496104</v>
+        <v>-23.92374323089311</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4806866911838815</v>
+        <v>-0.4741090041202325</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2966992306319349</v>
+        <v>-0.3066862943706893</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3426411349013334</v>
+        <v>-0.3475667008404603</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.4064246706915104</v>
+        <v>-0.4102396104720654</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-23.63606161856528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-22.64798277488343</v>
+        <v>-22.64798277488342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4685886817946907</v>
@@ -949,7 +949,7 @@
         <v>-0.3746426538943944</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3744632383559723</v>
+        <v>-0.3744632383559722</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-37.43993314816294</v>
+        <v>-37.1802833171251</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-35.46331433256296</v>
+        <v>-35.52749590124726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-30.64046168252403</v>
+        <v>-31.07880033298718</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-31.61820516109442</v>
+        <v>-31.50323243233712</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5454979340132461</v>
+        <v>-0.5435827535384563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6504014018363897</v>
+        <v>-0.6536988788864313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4676557416947341</v>
+        <v>-0.4710981735256622</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4749088280748436</v>
+        <v>-0.4799838855728173</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-23.85102775071097</v>
+        <v>-23.91214164906236</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-21.41618852913068</v>
+        <v>-21.62094501398061</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-16.42342594497351</v>
+        <v>-16.41887731143968</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-14.74011268030942</v>
+        <v>-15.02926214123629</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3802570723651056</v>
+        <v>-0.3770358500137803</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4469338848138407</v>
+        <v>-0.4560820150975201</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2750948076765155</v>
+        <v>-0.2770556082707843</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2680237115887386</v>
+        <v>-0.274763523784017</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.6028480425581514</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.6335274517311984</v>
+        <v>-0.6335274517311985</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.79314201004538</v>
+        <v>-33.71020348019786</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-44.34741632844117</v>
+        <v>-44.60220738074403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-34.76225670730539</v>
+        <v>-34.1025744354581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.84977151121704</v>
+        <v>-18.17116939282274</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.646044388107587</v>
+        <v>-0.6472512216133347</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6930866673289322</v>
+        <v>-0.6942698963942283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7176895216192022</v>
+        <v>-0.7239952056193687</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7771894815890893</v>
+        <v>-0.7787524711522951</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-14.61357819999121</v>
+        <v>-15.67452633378228</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-25.85749248550416</v>
+        <v>-26.67894431307702</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-18.14756791399462</v>
+        <v>-17.30758803099588</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.309573413495535</v>
+        <v>-6.450221828780878</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3450634788569794</v>
+        <v>-0.3649918125237935</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4675854699090913</v>
+        <v>-0.4747621840603083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4619033042328332</v>
+        <v>-0.4494819372120093</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.383877745970951</v>
+        <v>-0.3992068436703256</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-33.18416985286369</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-23.24034379930701</v>
+        <v>-23.24034379930703</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4398079067261086</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4618562062093111</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3654330312916945</v>
+        <v>-0.3654330312916949</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-39.42958513142842</v>
+        <v>-39.95882865978623</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-41.26514769909834</v>
+        <v>-41.8641421706665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-40.83672239808651</v>
+        <v>-40.51026990336235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-30.22031151781266</v>
+        <v>-29.80758098182397</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5296064575933767</v>
+        <v>-0.5364280292737181</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5820104895901631</v>
+        <v>-0.5885923417796176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5472878603517367</v>
+        <v>-0.5432565129519469</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4493616566665035</v>
+        <v>-0.4499384275233794</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-23.15513063967621</v>
+        <v>-23.82633213473783</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-25.4315926858096</v>
+        <v>-25.4590226810467</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-25.86024329566683</v>
+        <v>-25.32662265185215</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-16.11206857630983</v>
+        <v>-15.43292075570769</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3415026938198463</v>
+        <v>-0.3515826397284973</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3963654746701788</v>
+        <v>-0.4044987407571212</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3740850379453116</v>
+        <v>-0.3647600524223371</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2657335284324002</v>
+        <v>-0.256371858038061</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>-0.3567117434720145</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2860277509145008</v>
+        <v>-0.286027750914501</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-31.82816430930394</v>
+        <v>-31.41638774991356</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-34.47563134490434</v>
+        <v>-35.28077332291669</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-26.56658345959837</v>
+        <v>-26.47219799095187</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.62975360752371</v>
+        <v>-22.36251682342499</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6345404494165601</v>
+        <v>-0.6282571380293338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5498340475947023</v>
+        <v>-0.5636638489612978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4325553777805847</v>
+        <v>-0.4262858799330994</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3605582932856622</v>
+        <v>-0.3633487089224587</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-21.2329506243492</v>
+        <v>-21.24929121558455</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-23.0632369847905</v>
+        <v>-23.64371661345139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-15.60646519943145</v>
+        <v>-15.04812081430645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-11.47294077225964</v>
+        <v>-11.14881363813552</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.4749330312374996</v>
+        <v>-0.4757664100337149</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4049952420377884</v>
+        <v>-0.4096253373760519</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.2798910108955809</v>
+        <v>-0.2669453475191686</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2037743364604067</v>
+        <v>-0.2017050205339518</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-26.42385044091196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-22.52804888862839</v>
+        <v>-22.52804888862838</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.5378745638000743</v>
@@ -1349,7 +1349,7 @@
         <v>-0.450744907725645</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.4028592779746815</v>
+        <v>-0.4028592779746813</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-40.41419612098594</v>
+        <v>-40.59572270016859</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-36.61861939409755</v>
+        <v>-36.57002084834762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-31.22055134268831</v>
+        <v>-30.86336379817736</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-27.5280158829845</v>
+        <v>-27.0072133801719</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5894328726040944</v>
+        <v>-0.5942825335340209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6044491834206701</v>
+        <v>-0.6036523398105668</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5128329660463641</v>
+        <v>-0.5093328267645011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4674074809398797</v>
+        <v>-0.468130781637107</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-31.18854388496382</v>
+        <v>-30.825372074587</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-27.37446130491681</v>
+        <v>-26.66504861587104</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-21.41471902022148</v>
+        <v>-21.3386174512824</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-18.09854528196183</v>
+        <v>-17.80212414455871</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.4762120085671524</v>
+        <v>-0.476724231995457</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4845660864347288</v>
+        <v>-0.4793698172093758</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.379964581875404</v>
+        <v>-0.3815594918443129</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3377682017751694</v>
+        <v>-0.3336221075276596</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-33.19877691761889</v>
+        <v>-33.06969221613529</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-32.29867084710823</v>
+        <v>-32.40216458087338</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-28.86666806641669</v>
+        <v>-28.9434469816403</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-24.38774323758095</v>
+        <v>-24.13645311859189</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.5672390326693914</v>
+        <v>-0.5700088779535362</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.5314863871461204</v>
+        <v>-0.5325195856279253</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.4799230969274752</v>
+        <v>-0.4781318754070236</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.4176201532372982</v>
+        <v>-0.4125933689850124</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-28.4798734399174</v>
+        <v>-28.56951683426512</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-27.54892174118817</v>
+        <v>-27.74811077423707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-24.28623621491415</v>
+        <v>-24.28743023981881</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-19.60061525607622</v>
+        <v>-19.33600450908411</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.5073726280004411</v>
+        <v>-0.5091071941970714</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.4705254516366764</v>
+        <v>-0.4733279118373967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.4176465058996682</v>
+        <v>-0.4143022378782656</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.351715665707074</v>
+        <v>-0.3469236022617014</v>
       </c>
     </row>
     <row r="31">
